--- a/src/test/resources/case/Settled.xlsx
+++ b/src/test/resources/case/Settled.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>首长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -560,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
